--- a/controllers/yourspreadsheet.xlsx
+++ b/controllers/yourspreadsheet.xlsx
@@ -3688,7 +3688,7 @@
         <v>41</v>
       </c>
       <c r="C39" s="3">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D39" s="3">
         <v>2000</v>
@@ -4136,7 +4136,7 @@
         <v>73</v>
       </c>
       <c r="C71" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D71" s="3">
         <v>1350</v>
@@ -4892,7 +4892,7 @@
         <v>126</v>
       </c>
       <c r="C125" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D125" s="3">
         <v>525</v>
@@ -8476,7 +8476,7 @@
         <v>368</v>
       </c>
       <c r="C381" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D381" s="3">
         <v>2550</v>
@@ -13012,7 +13012,7 @@
         <v>678</v>
       </c>
       <c r="C705" s="3">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D705" s="3">
         <v>25</v>

--- a/controllers/yourspreadsheet.xlsx
+++ b/controllers/yourspreadsheet.xlsx
@@ -4083,7 +4083,7 @@
         <v>4</v>
       </c>
       <c r="D67" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -8476,7 +8476,7 @@
         <v>368</v>
       </c>
       <c r="C381" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D381" s="3">
         <v>2550</v>
